--- a/SQL tablas.xlsx
+++ b/SQL tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marje\Desktop\Coder\04 SQL\Ferreteria_Jeanneret\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A063960-9CAA-471D-B260-4AE8F32F4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BDB7A5-69AA-4A80-8F15-E6F9ED07AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="-15720" windowWidth="12345" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>TYPE</t>
   </si>
@@ -108,12 +108,6 @@
     <t>VALOR_COSTO</t>
   </si>
   <si>
-    <t>VAL_VEN</t>
-  </si>
-  <si>
-    <t>VALOR_VENTA</t>
-  </si>
-  <si>
     <t>DOUBLE</t>
   </si>
   <si>
@@ -277,13 +271,55 @@
   </si>
   <si>
     <t>P. KEY</t>
+  </si>
+  <si>
+    <t>PRODUCTO_EN_STOCK</t>
+  </si>
+  <si>
+    <t>PRO_STO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>VENDIDO O DISPONIBLE</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Concat</t>
+    </r>
+  </si>
+  <si>
+    <t>PRO_CPA</t>
+  </si>
+  <si>
+    <t>PRODUCTOS_COMPRADOS</t>
+  </si>
+  <si>
+    <t>PRO_VTA</t>
+  </si>
+  <si>
+    <t>PRODUCTOS_VENDIDOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +331,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,6 +452,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -723,7 +768,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -744,13 +789,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -762,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -783,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>20</v>
@@ -807,7 +852,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -877,7 +922,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -915,13 +960,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -934,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -944,7 +989,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -965,13 +1010,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -980,7 +1025,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>20</v>
@@ -1009,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -1056,7 +1101,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -1070,13 +1115,13 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1089,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1099,7 +1144,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -1120,13 +1165,13 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1159,7 +1204,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
@@ -1181,10 +1226,10 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
@@ -1196,14 +1241,14 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>24</v>
@@ -1218,20 +1263,20 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1244,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1254,7 +1299,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -1275,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1290,10 +1335,10 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>11</v>
@@ -1318,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>20</v>
@@ -1370,7 +1415,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
@@ -1384,117 +1429,117 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="4">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3">
-        <v>25</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
@@ -1502,9 +1547,7 @@
       <c r="F41" s="3">
         <v>25</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -1513,18 +1556,20 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3">
-        <v>50</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -1533,19 +1578,19 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F43" s="3">
+        <v>50</v>
+      </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
@@ -1553,21 +1598,19 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="3">
-        <v>25</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
@@ -1575,16 +1618,20 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="3">
+        <v>25</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -1593,13 +1640,13 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1607,673 +1654,755 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="E52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I56" s="2" t="s">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="D59" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="E59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="C60" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" s="2" t="s">
+      <c r="D84" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="D85" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="E85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="E86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B82:G82"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B73:G73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
